--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS1.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS1.xlsx
@@ -19,7 +19,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="114">
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
   <si>
     <t>Signal_Value_82</t>
   </si>
@@ -51,96 +285,6 @@
     <t>Signal_Value_91</t>
   </si>
   <si>
-    <t>Signal_Value_92</t>
-  </si>
-  <si>
-    <t>Signal_Value_93</t>
-  </si>
-  <si>
-    <t>Signal_Value_94</t>
-  </si>
-  <si>
-    <t>Signal_Value_95</t>
-  </si>
-  <si>
-    <t>Signal_Value_96</t>
-  </si>
-  <si>
-    <t>Signal_Value_97</t>
-  </si>
-  <si>
-    <t>Signal_Value_98</t>
-  </si>
-  <si>
-    <t>Signal_Value_99</t>
-  </si>
-  <si>
-    <t>Signal_Value_100</t>
-  </si>
-  <si>
-    <t>Signal_Value_101</t>
-  </si>
-  <si>
-    <t>Signal_Value_102</t>
-  </si>
-  <si>
-    <t>Signal_Value_103</t>
-  </si>
-  <si>
-    <t>Signal_Value_104</t>
-  </si>
-  <si>
-    <t>Signal_Value_105</t>
-  </si>
-  <si>
-    <t>Signal_Value_106</t>
-  </si>
-  <si>
-    <t>Signal_Value_107</t>
-  </si>
-  <si>
-    <t>Signal_Value_108</t>
-  </si>
-  <si>
-    <t>Signal_Value_109</t>
-  </si>
-  <si>
-    <t>Signal_Value_110</t>
-  </si>
-  <si>
-    <t>Signal_Value_111</t>
-  </si>
-  <si>
-    <t>Signal_Value_112</t>
-  </si>
-  <si>
-    <t>Signal_Value_113</t>
-  </si>
-  <si>
-    <t>Signal_Value_114</t>
-  </si>
-  <si>
-    <t>Signal_Value_115</t>
-  </si>
-  <si>
-    <t>Signal_Value_116</t>
-  </si>
-  <si>
-    <t>Signal_Value_117</t>
-  </si>
-  <si>
-    <t>Signal_Value_118</t>
-  </si>
-  <si>
-    <t>Signal_Value_119</t>
-  </si>
-  <si>
-    <t>Signal_Value_120</t>
-  </si>
-  <si>
-    <t>Signal_Value_121</t>
-  </si>
-  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -213,10 +357,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -577,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:89">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -707,10 +848,154 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:89">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -719,100 +1004,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009896361712535131</v>
+        <v>0.05986910038018073</v>
       </c>
       <c r="E2">
-        <v>7.393136683811688E-05</v>
+        <v>0.007801933479719929</v>
       </c>
       <c r="F2">
-        <v>0.0006479977631881757</v>
+        <v>0.01224862385560722</v>
       </c>
       <c r="G2">
-        <v>0.0002508251190015145</v>
+        <v>0.02713158765506858</v>
       </c>
       <c r="H2">
-        <v>0.001053936036348601</v>
+        <v>0.1498258841499188</v>
       </c>
       <c r="I2">
-        <v>0.0464347208177218</v>
+        <v>0.1635640756245807</v>
       </c>
       <c r="J2">
-        <v>0.0005924161172722225</v>
+        <v>0.02179073913016946</v>
       </c>
       <c r="K2">
-        <v>0.05967451974814385</v>
+        <v>0.02477912772814081</v>
       </c>
       <c r="L2">
-        <v>0.1209401060580294</v>
+        <v>0.01098314563885167</v>
       </c>
       <c r="M2">
-        <v>0.01865510399047435</v>
+        <v>0.1304200438642077</v>
       </c>
       <c r="N2">
-        <v>0.002155307404526129</v>
+        <v>0.01878241148434201</v>
       </c>
       <c r="O2">
-        <v>0.05127199359968136</v>
+        <v>0.004399984950032453</v>
       </c>
       <c r="P2">
-        <v>0.09143275602343333</v>
+        <v>0.01224800388055452</v>
       </c>
       <c r="Q2">
-        <v>0.03382220885014445</v>
+        <v>0.009197050337599186</v>
       </c>
       <c r="R2">
-        <v>0.02953673546340072</v>
+        <v>0.003282691219891058</v>
       </c>
       <c r="S2">
-        <v>0.03509317654052092</v>
+        <v>0.05061550541526995</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.01758412277367283</v>
       </c>
       <c r="U2">
-        <v>0.0516461697754208</v>
+        <v>0.05003406111548968</v>
       </c>
       <c r="V2">
-        <v>0.07797462685430706</v>
+        <v>0.000722681873048711</v>
       </c>
       <c r="W2">
-        <v>0.06531758879080456</v>
+        <v>3.017015423579111E-05</v>
       </c>
       <c r="X2">
-        <v>0.0513292035000733</v>
+        <v>0.02539742223049195</v>
       </c>
       <c r="Y2">
-        <v>0.02537342651799994</v>
+        <v>0.01979488328074795</v>
       </c>
       <c r="Z2">
-        <v>0.008207097716375018</v>
+        <v>0.001678135875789631</v>
       </c>
       <c r="AA2">
-        <v>0.0006746127969462182</v>
+        <v>0.02308140325294015</v>
       </c>
       <c r="AB2">
-        <v>0.002790121432303937</v>
+        <v>0.001891142991821261</v>
       </c>
       <c r="AC2">
-        <v>0.02969042799333431</v>
+        <v>0.004128303812973562</v>
       </c>
       <c r="AD2">
-        <v>0.04175746669205303</v>
+        <v>0.01444895421122216</v>
       </c>
       <c r="AE2">
-        <v>0.03245492286227009</v>
+        <v>0.05840776751636807</v>
       </c>
       <c r="AF2">
-        <v>0.03604330234862949</v>
+        <v>0.03883811275500345</v>
       </c>
       <c r="AG2">
-        <v>0.03090211519956728</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.02609334153796749</v>
+        <v>0.00495576849399129</v>
       </c>
       <c r="AI2">
-        <v>0.01821347937068757</v>
+        <v>0.03206716086806871</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -832,10 +1117,154 @@
       <c r="AO2">
         <v>0</v>
       </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:89">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -853,100 +1282,100 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002550082247126781</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001050219523662877</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01843612860568767</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0004246420618874099</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05974461468512921</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03926679163735735</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03800308141736316</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1560338094692136</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01344714094320621</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.08159137021008402</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.08770850545758499</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01578296040067209</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.03575610501151137</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.006753600550281198</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.09132037605516219</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.06530130627635995</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01368953374268594</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0007813554975963679</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0009833206309572461</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0007426204239699302</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.005417107680359322</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.008559883508876287</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03283477659787872</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0423994657341513</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.02703051357285589</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01567422219643903</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.007256580191470485</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0007548699310070061</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01029846955740265</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.03442187524799072</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.04067525672254039</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.04625461178282524</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -957,10 +1386,154 @@
       <c r="AO3">
         <v>0</v>
       </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.06578618293969712</v>
+      </c>
+      <c r="BG3">
+        <v>0.002608363880837019</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0.1311192248449024</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1653108264821423</v>
+      </c>
+      <c r="BK3">
+        <v>0.00380785196767165</v>
+      </c>
+      <c r="BL3">
+        <v>0.03825231958989892</v>
+      </c>
+      <c r="BM3">
+        <v>0.002711018664070642</v>
+      </c>
+      <c r="BN3">
+        <v>0.07726246747207784</v>
+      </c>
+      <c r="BO3">
+        <v>0.06450050286950654</v>
+      </c>
+      <c r="BP3">
+        <v>0.004814549775610217</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0.01409125524470425</v>
+      </c>
+      <c r="BT3">
+        <v>0.03027451432243114</v>
+      </c>
+      <c r="BU3">
+        <v>0.02039663893576533</v>
+      </c>
+      <c r="BV3">
+        <v>0.03412102500078533</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0.001420828106761856</v>
+      </c>
+      <c r="BY3">
+        <v>0.01334041382015236</v>
+      </c>
+      <c r="BZ3">
+        <v>0.02123661240055893</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.0182384659079842</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0.01132030169016144</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0.03141959813871663</v>
+      </c>
+      <c r="CG3">
+        <v>0.09661156287388187</v>
+      </c>
+      <c r="CH3">
+        <v>0.002341070974276534</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.00733392625665477</v>
+      </c>
+      <c r="CK3">
+        <v>0.1416804778407511</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:89">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -987,105 +1560,249 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00278292315077406</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02109146188771807</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02118990622353497</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01437085969453836</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1944755176124512</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01364062183395727</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1231288842197563</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.09065749057968819</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.004266147750389648</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1074550093649538</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.1158002170629411</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01276072486934408</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01019169508552645</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.07194661440233607</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.06460875822923011</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01219244903489952</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001623373940087471</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.00416521528406198</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>4.154311748236097E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.004460627935642119</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01022988743974584</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01281275703783539</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01000911600876283</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002070796544882066</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001303249691266411</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002037380817386022</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0002716779674347692</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002260633866624866</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.01731255753434669</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.03556520600343758</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.01711033854461205</v>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0.1199369363883166</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0.06018724660379769</v>
+      </c>
+      <c r="BI4">
+        <v>0.08538844403811931</v>
+      </c>
+      <c r="BJ4">
+        <v>0.1682924128435994</v>
+      </c>
+      <c r="BK4">
+        <v>0.04291452970455212</v>
+      </c>
+      <c r="BL4">
+        <v>0.0005859305892896762</v>
+      </c>
+      <c r="BM4">
+        <v>0.001951892540421542</v>
+      </c>
+      <c r="BN4">
+        <v>0.04414727550652604</v>
+      </c>
+      <c r="BO4">
+        <v>0.08750577111375991</v>
+      </c>
+      <c r="BP4">
+        <v>0.0001718530322536363</v>
+      </c>
+      <c r="BQ4">
+        <v>0.001931394666416749</v>
+      </c>
+      <c r="BR4">
+        <v>0.002020134224286058</v>
+      </c>
+      <c r="BS4">
+        <v>0.003555608839376447</v>
+      </c>
+      <c r="BT4">
+        <v>0.006974666093035571</v>
+      </c>
+      <c r="BU4">
+        <v>0.0359471088176884</v>
+      </c>
+      <c r="BV4">
+        <v>0.009220569724560637</v>
+      </c>
+      <c r="BW4">
+        <v>0.001223605774316572</v>
+      </c>
+      <c r="BX4">
+        <v>0.002127047922412764</v>
+      </c>
+      <c r="BY4">
+        <v>0.02120287729293021</v>
+      </c>
+      <c r="BZ4">
+        <v>0.02313755888873446</v>
+      </c>
+      <c r="CA4">
+        <v>0.01123804146657213</v>
+      </c>
+      <c r="CB4">
+        <v>0.0002995868131468785</v>
+      </c>
+      <c r="CC4">
+        <v>0.008940681256926715</v>
+      </c>
+      <c r="CD4">
+        <v>0.004117968227598585</v>
+      </c>
+      <c r="CE4">
+        <v>5.345211614597513E-06</v>
+      </c>
+      <c r="CF4">
+        <v>0.02094112395899438</v>
+      </c>
+      <c r="CG4">
+        <v>0.0686894188439419</v>
+      </c>
+      <c r="CH4">
+        <v>0.02594523280007199</v>
+      </c>
+      <c r="CI4">
+        <v>0.004135454102585271</v>
+      </c>
+      <c r="CJ4">
+        <v>0.01159307588843156</v>
+      </c>
+      <c r="CK4">
+        <v>0.1256712068257221</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:89">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1103,100 +1820,100 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.004655392533910973</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.007384992478491759</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.007140443989949621</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.008322258045862266</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0102042020714707</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.008265581708515471</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.006113493932584721</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04542728611835312</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001724742487826698</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1629506215887414</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.108295219830284</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0002320932681092155</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03897651405762945</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.1462284797949049</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.1017578270839064</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.009556540197709218</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0005387598114169538</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03270092774536221</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06882360025723651</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.06516222337973483</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.04738309071354568</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005721660943533775</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002176491251858518</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00859568880900421</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01334331755450063</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02490130515226968</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.02480345070541177</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.01750656149149967</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.02110723299637577</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1207,10 +1924,154 @@
       <c r="AO5">
         <v>0</v>
       </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0.1189608396779593</v>
+      </c>
+      <c r="BG5">
+        <v>0.01336307006399648</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.05674119582074887</v>
+      </c>
+      <c r="BJ5">
+        <v>0.1323340474118132</v>
+      </c>
+      <c r="BK5">
+        <v>0.0149920563961615</v>
+      </c>
+      <c r="BL5">
+        <v>0.00205307499295025</v>
+      </c>
+      <c r="BM5">
+        <v>0.009413923113483184</v>
+      </c>
+      <c r="BN5">
+        <v>0.1119327244803471</v>
+      </c>
+      <c r="BO5">
+        <v>0.02417998598446084</v>
+      </c>
+      <c r="BP5">
+        <v>0.01247148149829466</v>
+      </c>
+      <c r="BQ5">
+        <v>0.003099517406838901</v>
+      </c>
+      <c r="BR5">
+        <v>0.01235205514261064</v>
+      </c>
+      <c r="BS5">
+        <v>0.004165341607011664</v>
+      </c>
+      <c r="BT5">
+        <v>0.01145666413022347</v>
+      </c>
+      <c r="BU5">
+        <v>0.0618939947565648</v>
+      </c>
+      <c r="BV5">
+        <v>0.02279112363175951</v>
+      </c>
+      <c r="BW5">
+        <v>0.0001452587035426296</v>
+      </c>
+      <c r="BX5">
+        <v>0.0003703903904190515</v>
+      </c>
+      <c r="BY5">
+        <v>0.002274544660093998</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0.09668089503099175</v>
+      </c>
+      <c r="CB5">
+        <v>0.001497455483340636</v>
+      </c>
+      <c r="CC5">
+        <v>0.0212949632753107</v>
+      </c>
+      <c r="CD5">
+        <v>0.01043147805517994</v>
+      </c>
+      <c r="CE5">
+        <v>0.0117824017105019</v>
+      </c>
+      <c r="CF5">
+        <v>0.02596138858852578</v>
+      </c>
+      <c r="CG5">
+        <v>0.03435307589322111</v>
+      </c>
+      <c r="CH5">
+        <v>0.04580818445499897</v>
+      </c>
+      <c r="CI5">
+        <v>0.008777058919914727</v>
+      </c>
+      <c r="CJ5">
+        <v>0.02011640453998475</v>
+      </c>
+      <c r="CK5">
+        <v>0.1083054041787496</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:89">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1228,100 +2089,100 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01250638278839637</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.00505623539795659</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004602043852028009</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002225016764104172</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01007019576200029</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.005421208807350925</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06979843941626679</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.006026292013424295</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.09024546500504267</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1675756030605925</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0113909393246393</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02219030048934219</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.07940668823812858</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.09789967654906535</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.009463392341546676</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.006727039650739432</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.006405375081734836</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.005278370191775523</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0525363418851638</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.06700853147278663</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06538034709377086</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02975667665389097</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001110258156240449</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002719532425369079</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.008193519263928613</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01793544816423385</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02785221141590967</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01961574023195614</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01993157742269263</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0293322396573558</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.04834142651026093</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1330,6 +2191,150 @@
         <v>0</v>
       </c>
       <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.05234801811250901</v>
+      </c>
+      <c r="BF6">
+        <v>0.069441325889964</v>
+      </c>
+      <c r="BG6">
+        <v>0.04853623033645307</v>
+      </c>
+      <c r="BH6">
+        <v>0.0008101923954846635</v>
+      </c>
+      <c r="BI6">
+        <v>0.01957515183816484</v>
+      </c>
+      <c r="BJ6">
+        <v>0.1346545975901232</v>
+      </c>
+      <c r="BK6">
+        <v>0.01218577519878494</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0.003405783583269701</v>
+      </c>
+      <c r="BN6">
+        <v>0.05042270254900656</v>
+      </c>
+      <c r="BO6">
+        <v>0.04212961761863277</v>
+      </c>
+      <c r="BP6">
+        <v>0.01000969078511546</v>
+      </c>
+      <c r="BQ6">
+        <v>0.02170384771770988</v>
+      </c>
+      <c r="BR6">
+        <v>0.03466323284113428</v>
+      </c>
+      <c r="BS6">
+        <v>0.02728591693536212</v>
+      </c>
+      <c r="BT6">
+        <v>0.01087782492743798</v>
+      </c>
+      <c r="BU6">
+        <v>0.07196160027460172</v>
+      </c>
+      <c r="BV6">
+        <v>0.04486568118564237</v>
+      </c>
+      <c r="BW6">
+        <v>0.004221548828355451</v>
+      </c>
+      <c r="BX6">
+        <v>0.02712108936795429</v>
+      </c>
+      <c r="BY6">
+        <v>0.003804248035583627</v>
+      </c>
+      <c r="BZ6">
+        <v>0.05747826416257597</v>
+      </c>
+      <c r="CA6">
+        <v>0.006105273742685975</v>
+      </c>
+      <c r="CB6">
+        <v>0.08026866361882908</v>
+      </c>
+      <c r="CC6">
+        <v>0.00107656986473088</v>
+      </c>
+      <c r="CD6">
+        <v>0.006296304197945316</v>
+      </c>
+      <c r="CE6">
+        <v>0.0006097437994991463</v>
+      </c>
+      <c r="CF6">
+        <v>0.008534291624978462</v>
+      </c>
+      <c r="CG6">
+        <v>0.09558345868101711</v>
+      </c>
+      <c r="CH6">
+        <v>0.007094998548510269</v>
+      </c>
+      <c r="CI6">
+        <v>0.0265268843426695</v>
+      </c>
+      <c r="CJ6">
+        <v>0.02040147140526826</v>
+      </c>
+      <c r="CK6">
         <v>0</v>
       </c>
     </row>
@@ -1340,15 +2345,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:89">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1470,10 +2475,154 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:89">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1482,97 +2631,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009896361712535131</v>
+        <v>0.05986910038018073</v>
       </c>
       <c r="E2">
-        <v>0.009970293079373247</v>
+        <v>0.06767103385990066</v>
       </c>
       <c r="F2">
-        <v>0.01061829084256142</v>
+        <v>0.07991965771550788</v>
       </c>
       <c r="G2">
-        <v>0.01086911596156294</v>
+        <v>0.1070512453705765</v>
       </c>
       <c r="H2">
-        <v>0.01192305199791154</v>
+        <v>0.2568771295204952</v>
       </c>
       <c r="I2">
-        <v>0.05835777281563334</v>
+        <v>0.4204412051450759</v>
       </c>
       <c r="J2">
-        <v>0.05895018893290557</v>
+        <v>0.4422319442752454</v>
       </c>
       <c r="K2">
-        <v>0.1186247086810494</v>
+        <v>0.4670110720033862</v>
       </c>
       <c r="L2">
-        <v>0.2395648147390788</v>
+        <v>0.4779942176422379</v>
       </c>
       <c r="M2">
-        <v>0.2582199187295531</v>
+        <v>0.6084142615064456</v>
       </c>
       <c r="N2">
-        <v>0.2603752261340792</v>
+        <v>0.6271966729907876</v>
       </c>
       <c r="O2">
-        <v>0.3116472197337606</v>
+        <v>0.6315966579408201</v>
       </c>
       <c r="P2">
-        <v>0.4030799757571939</v>
+        <v>0.6438446618213746</v>
       </c>
       <c r="Q2">
-        <v>0.4369021846073383</v>
+        <v>0.6530417121589738</v>
       </c>
       <c r="R2">
-        <v>0.4664389200707391</v>
+        <v>0.6563244033788649</v>
       </c>
       <c r="S2">
-        <v>0.50153209661126</v>
+        <v>0.7069399087941348</v>
       </c>
       <c r="T2">
-        <v>0.50153209661126</v>
+        <v>0.7245240315678076</v>
       </c>
       <c r="U2">
-        <v>0.5531782663866808</v>
+        <v>0.7745580926832973</v>
       </c>
       <c r="V2">
-        <v>0.6311528932409878</v>
+        <v>0.775280774556346</v>
       </c>
       <c r="W2">
-        <v>0.6964704820317923</v>
+        <v>0.7753109447105818</v>
       </c>
       <c r="X2">
-        <v>0.7477996855318656</v>
+        <v>0.8007083669410737</v>
       </c>
       <c r="Y2">
-        <v>0.7731731120498655</v>
+        <v>0.8205032502218217</v>
       </c>
       <c r="Z2">
-        <v>0.7813802097662406</v>
+        <v>0.8221813860976113</v>
       </c>
       <c r="AA2">
-        <v>0.7820548225631868</v>
+        <v>0.8452627893505514</v>
       </c>
       <c r="AB2">
-        <v>0.7848449439954908</v>
+        <v>0.8471539323423727</v>
       </c>
       <c r="AC2">
-        <v>0.8145353719888251</v>
+        <v>0.8512822361553463</v>
       </c>
       <c r="AD2">
-        <v>0.8562928386808781</v>
+        <v>0.8657311903665684</v>
       </c>
       <c r="AE2">
-        <v>0.8887477615431483</v>
+        <v>0.9241389578829365</v>
       </c>
       <c r="AF2">
-        <v>0.9247910638917778</v>
+        <v>0.96297707063794</v>
       </c>
       <c r="AG2">
-        <v>0.9556931790913451</v>
+        <v>0.96297707063794</v>
       </c>
       <c r="AH2">
-        <v>0.9817865206293126</v>
+        <v>0.9679328391319313</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1595,10 +2744,154 @@
       <c r="AO2">
         <v>1</v>
       </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:89">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1616,114 +2909,258 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002550082247126781</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002655104199493068</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02109123280518074</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02151587486706815</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.08126048955219736</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1205272811895547</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1585303626069179</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.3145641720761315</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3280113130193377</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4096026832294217</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.4973111886870067</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.5130941490876788</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.5488502540991902</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.5556038546494714</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.6469242307046336</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.7122255369809936</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.7259150707236794</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.7266964262212758</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.7276797468522331</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.728422367276203</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.7338394749565623</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.7423993584654386</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.7752341350633173</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.8176336007974686</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.8446641143703245</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8603383365667635</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.867594916758234</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.868349786689241</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.8786482562466437</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.9130701314946343</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.9537453882171747</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.06578618293969712</v>
+      </c>
+      <c r="BG3">
+        <v>0.06839454682053414</v>
+      </c>
+      <c r="BH3">
+        <v>0.06839454682053414</v>
+      </c>
+      <c r="BI3">
+        <v>0.1995137716654365</v>
+      </c>
+      <c r="BJ3">
+        <v>0.3648245981475788</v>
+      </c>
+      <c r="BK3">
+        <v>0.3686324501152505</v>
+      </c>
+      <c r="BL3">
+        <v>0.4068847697051494</v>
+      </c>
+      <c r="BM3">
+        <v>0.4095957883692201</v>
+      </c>
+      <c r="BN3">
+        <v>0.4868582558412979</v>
+      </c>
+      <c r="BO3">
+        <v>0.5513587587108044</v>
+      </c>
+      <c r="BP3">
+        <v>0.5561733084864147</v>
+      </c>
+      <c r="BQ3">
+        <v>0.5561733084864147</v>
+      </c>
+      <c r="BR3">
+        <v>0.5561733084864147</v>
+      </c>
+      <c r="BS3">
+        <v>0.5702645637311189</v>
+      </c>
+      <c r="BT3">
+        <v>0.60053907805355</v>
+      </c>
+      <c r="BU3">
+        <v>0.6209357169893154</v>
+      </c>
+      <c r="BV3">
+        <v>0.6550567419901007</v>
+      </c>
+      <c r="BW3">
+        <v>0.6550567419901007</v>
+      </c>
+      <c r="BX3">
+        <v>0.6564775700968625</v>
+      </c>
+      <c r="BY3">
+        <v>0.6698179839170149</v>
+      </c>
+      <c r="BZ3">
+        <v>0.6910545963175738</v>
+      </c>
+      <c r="CA3">
+        <v>0.6910545963175738</v>
+      </c>
+      <c r="CB3">
+        <v>0.709293062225558</v>
+      </c>
+      <c r="CC3">
+        <v>0.709293062225558</v>
+      </c>
+      <c r="CD3">
+        <v>0.7206133639157194</v>
+      </c>
+      <c r="CE3">
+        <v>0.7206133639157194</v>
+      </c>
+      <c r="CF3">
+        <v>0.752032962054436</v>
+      </c>
+      <c r="CG3">
+        <v>0.8486445249283179</v>
+      </c>
+      <c r="CH3">
+        <v>0.8509855959025944</v>
+      </c>
+      <c r="CI3">
+        <v>0.8509855959025944</v>
+      </c>
+      <c r="CJ3">
+        <v>0.8583195221592491</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:89">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1750,105 +3187,249 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00278292315077406</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02387438503849213</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0450642912620271</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05943515095656546</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.05943515095656546</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2539106685690167</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2675512904029739</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.3906801746227302</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.4813376652024184</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4856038129528081</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.593058822317762</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.708859039380703</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.7216197642500471</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.7318114593355736</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.8037580737379096</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.8683668319671397</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.8805592810020393</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8821826549421268</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.8863478702261888</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.8863894133436712</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.8908500412793133</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9010799287190592</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9138926857568945</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9239018017656574</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9259725983105395</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9272758480018058</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.9274795860835444</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9277512640509792</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.9300118979176041</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9473244554519508</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.9828896614553884</v>
+        <v>0</v>
       </c>
       <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0.1199369363883166</v>
+      </c>
+      <c r="BG4">
+        <v>0.1199369363883166</v>
+      </c>
+      <c r="BH4">
+        <v>0.1801241829921143</v>
+      </c>
+      <c r="BI4">
+        <v>0.2655126270302336</v>
+      </c>
+      <c r="BJ4">
+        <v>0.4338050398738331</v>
+      </c>
+      <c r="BK4">
+        <v>0.4767195695783852</v>
+      </c>
+      <c r="BL4">
+        <v>0.4773055001676749</v>
+      </c>
+      <c r="BM4">
+        <v>0.4792573927080964</v>
+      </c>
+      <c r="BN4">
+        <v>0.5234046682146225</v>
+      </c>
+      <c r="BO4">
+        <v>0.6109104393283824</v>
+      </c>
+      <c r="BP4">
+        <v>0.611082292360636</v>
+      </c>
+      <c r="BQ4">
+        <v>0.6130136870270528</v>
+      </c>
+      <c r="BR4">
+        <v>0.6150338212513389</v>
+      </c>
+      <c r="BS4">
+        <v>0.6185894300907153</v>
+      </c>
+      <c r="BT4">
+        <v>0.6255640961837509</v>
+      </c>
+      <c r="BU4">
+        <v>0.6615112050014392</v>
+      </c>
+      <c r="BV4">
+        <v>0.6707317747259999</v>
+      </c>
+      <c r="BW4">
+        <v>0.6719553805003164</v>
+      </c>
+      <c r="BX4">
+        <v>0.6740824284227293</v>
+      </c>
+      <c r="BY4">
+        <v>0.6952853057156595</v>
+      </c>
+      <c r="BZ4">
+        <v>0.718422864604394</v>
+      </c>
+      <c r="CA4">
+        <v>0.7296609060709661</v>
+      </c>
+      <c r="CB4">
+        <v>0.729960492884113</v>
+      </c>
+      <c r="CC4">
+        <v>0.7389011741410397</v>
+      </c>
+      <c r="CD4">
+        <v>0.7430191423686383</v>
+      </c>
+      <c r="CE4">
+        <v>0.7430244875802529</v>
+      </c>
+      <c r="CF4">
+        <v>0.7639656115392472</v>
+      </c>
+      <c r="CG4">
+        <v>0.8326550303831891</v>
+      </c>
+      <c r="CH4">
+        <v>0.8586002631832611</v>
+      </c>
+      <c r="CI4">
+        <v>0.8627357172858464</v>
+      </c>
+      <c r="CJ4">
+        <v>0.874328793174278</v>
+      </c>
+      <c r="CK4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:89">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1866,114 +3447,258 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.004655392533910973</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01204038501240273</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01204038501240273</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01918082900235235</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02750308704821462</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03770728911968532</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.04597287082820079</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.05208636476078551</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.09751365087913863</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.09923839336696533</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2621890149557067</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.3704842347859908</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3707163280541</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.4096928421117294</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.5559213219066343</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.6576791489905407</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.6576791489905407</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.6672356891882499</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6677744489996669</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.6677744489996669</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.7004753767450291</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.7692989770022657</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.8344612003820006</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.8818442910955462</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.88756595203908</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.8897424432909384</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8983381320999426</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9116814496544432</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.9365827548067129</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.9613862055121247</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.9788927670036244</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0.1189608396779593</v>
+      </c>
+      <c r="BG5">
+        <v>0.1323239097419557</v>
+      </c>
+      <c r="BH5">
+        <v>0.1323239097419557</v>
+      </c>
+      <c r="BI5">
+        <v>0.1890651055627046</v>
+      </c>
+      <c r="BJ5">
+        <v>0.3213991529745178</v>
+      </c>
+      <c r="BK5">
+        <v>0.3363912093706793</v>
+      </c>
+      <c r="BL5">
+        <v>0.3384442843636296</v>
+      </c>
+      <c r="BM5">
+        <v>0.3478582074771128</v>
+      </c>
+      <c r="BN5">
+        <v>0.4597909319574599</v>
+      </c>
+      <c r="BO5">
+        <v>0.4839709179419208</v>
+      </c>
+      <c r="BP5">
+        <v>0.4964423994402155</v>
+      </c>
+      <c r="BQ5">
+        <v>0.4995419168470543</v>
+      </c>
+      <c r="BR5">
+        <v>0.511893971989665</v>
+      </c>
+      <c r="BS5">
+        <v>0.5160593135966767</v>
+      </c>
+      <c r="BT5">
+        <v>0.5275159777269002</v>
+      </c>
+      <c r="BU5">
+        <v>0.5894099724834649</v>
+      </c>
+      <c r="BV5">
+        <v>0.6122010961152244</v>
+      </c>
+      <c r="BW5">
+        <v>0.6123463548187671</v>
+      </c>
+      <c r="BX5">
+        <v>0.6127167452091862</v>
+      </c>
+      <c r="BY5">
+        <v>0.6149912898692802</v>
+      </c>
+      <c r="BZ5">
+        <v>0.6149912898692802</v>
+      </c>
+      <c r="CA5">
+        <v>0.711672184900272</v>
+      </c>
+      <c r="CB5">
+        <v>0.7131696403836126</v>
+      </c>
+      <c r="CC5">
+        <v>0.7344646036589233</v>
+      </c>
+      <c r="CD5">
+        <v>0.7448960817141033</v>
+      </c>
+      <c r="CE5">
+        <v>0.7566784834246052</v>
+      </c>
+      <c r="CF5">
+        <v>0.782639872013131</v>
+      </c>
+      <c r="CG5">
+        <v>0.8169929479063521</v>
+      </c>
+      <c r="CH5">
+        <v>0.8628011323613511</v>
+      </c>
+      <c r="CI5">
+        <v>0.8715781912812659</v>
+      </c>
+      <c r="CJ5">
+        <v>0.8916945958212507</v>
+      </c>
+      <c r="CK5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:89">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1991,108 +3716,252 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01250638278839637</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01756261818635296</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02216466203838097</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02238716371479139</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03245735947679168</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03787856828414261</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1076770077004094</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1137032997138337</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2039487647188764</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3715243677794689</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3829153071041082</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.4051056075934504</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.484512295831579</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.5824119723806443</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.591875364722191</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.5986024043729304</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.5986024043729304</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.6050077794546653</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.6102861496464409</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.6628224915316047</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.7298310230043913</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.7952113700981621</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.824968046752053</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.8260783049082935</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.8287978373336625</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.8369913565975912</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.854926804761825</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.8827790161777347</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9023947564096908</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.9223263338323834</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.9516585734897391</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.05234801811250901</v>
+      </c>
+      <c r="BF6">
+        <v>0.121789344002473</v>
+      </c>
+      <c r="BG6">
+        <v>0.1703255743389261</v>
+      </c>
+      <c r="BH6">
+        <v>0.1711357667344107</v>
+      </c>
+      <c r="BI6">
+        <v>0.1907109185725756</v>
+      </c>
+      <c r="BJ6">
+        <v>0.3253655161626987</v>
+      </c>
+      <c r="BK6">
+        <v>0.3375512913614837</v>
+      </c>
+      <c r="BL6">
+        <v>0.3375512913614837</v>
+      </c>
+      <c r="BM6">
+        <v>0.3409570749447534</v>
+      </c>
+      <c r="BN6">
+        <v>0.3913797774937599</v>
+      </c>
+      <c r="BO6">
+        <v>0.4335093951123927</v>
+      </c>
+      <c r="BP6">
+        <v>0.4435190858975081</v>
+      </c>
+      <c r="BQ6">
+        <v>0.465222933615218</v>
+      </c>
+      <c r="BR6">
+        <v>0.4998861664563523</v>
+      </c>
+      <c r="BS6">
+        <v>0.5271720833917144</v>
+      </c>
+      <c r="BT6">
+        <v>0.5380499083191523</v>
+      </c>
+      <c r="BU6">
+        <v>0.6100115085937541</v>
+      </c>
+      <c r="BV6">
+        <v>0.6548771897793965</v>
+      </c>
+      <c r="BW6">
+        <v>0.6590987386077519</v>
+      </c>
+      <c r="BX6">
+        <v>0.6862198279757062</v>
+      </c>
+      <c r="BY6">
+        <v>0.6900240760112899</v>
+      </c>
+      <c r="BZ6">
+        <v>0.7475023401738659</v>
+      </c>
+      <c r="CA6">
+        <v>0.7536076139165518</v>
+      </c>
+      <c r="CB6">
+        <v>0.833876277535381</v>
+      </c>
+      <c r="CC6">
+        <v>0.8349528474001119</v>
+      </c>
+      <c r="CD6">
+        <v>0.8412491515980572</v>
+      </c>
+      <c r="CE6">
+        <v>0.8418588953975564</v>
+      </c>
+      <c r="CF6">
+        <v>0.8503931870225349</v>
+      </c>
+      <c r="CG6">
+        <v>0.945976645703552</v>
+      </c>
+      <c r="CH6">
+        <v>0.9530716442520623</v>
+      </c>
+      <c r="CI6">
+        <v>0.9795985285947317</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
         <v>1</v>
       </c>
     </row>
@@ -2111,272 +3980,260 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.01061829084256142</v>
+        <v>0.1070512453705765</v>
       </c>
       <c r="F2">
-        <v>0.50153209661126</v>
+        <v>0.6084142615064456</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>0.02109123280518074</v>
+        <v>0.1995137716654365</v>
       </c>
       <c r="F3">
-        <v>0.5130941490876788</v>
+        <v>0.5513587587108044</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>0.02387438503849213</v>
+        <v>0.1199369363883166</v>
       </c>
       <c r="F4">
-        <v>0.593058822317762</v>
+        <v>0.5234046682146225</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <v>0.01204038501240273</v>
+        <v>0.1189608396779593</v>
       </c>
       <c r="F5">
-        <v>0.5559213219066343</v>
+        <v>0.511893971989665</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>0.01250638278839637</v>
+        <v>0.121789344002473</v>
       </c>
       <c r="F6">
-        <v>0.5824119723806443</v>
+        <v>0.5271720833917144</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2385,28 +4242,25 @@
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2424,272 +4278,260 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.01061829084256142</v>
+        <v>0.1070512453705765</v>
       </c>
       <c r="F2">
-        <v>0.7477996855318656</v>
+        <v>0.7069399087941348</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>0.02109123280518074</v>
+        <v>0.1995137716654365</v>
       </c>
       <c r="F3">
-        <v>0.7122255369809936</v>
+        <v>0.709293062225558</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>0.1199369363883166</v>
+      </c>
+      <c r="F4">
+        <v>0.718422864604394</v>
+      </c>
+      <c r="G4">
         <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0.02387438503849213</v>
-      </c>
-      <c r="F4">
-        <v>0.708859039380703</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E5">
-        <v>0.01204038501240273</v>
+        <v>0.1189608396779593</v>
       </c>
       <c r="F5">
-        <v>0.7004753767450291</v>
+        <v>0.711672184900272</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>0.01250638278839637</v>
+        <v>0.121789344002473</v>
       </c>
       <c r="F6">
-        <v>0.7298310230043913</v>
+        <v>0.7475023401738659</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -2698,28 +4540,25 @@
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2737,272 +4576,260 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.01061829084256142</v>
+        <v>0.1070512453705765</v>
       </c>
       <c r="F2">
-        <v>0.8145353719888251</v>
+        <v>0.8007083669410737</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>0.02109123280518074</v>
+        <v>0.1995137716654365</v>
       </c>
       <c r="F3">
-        <v>0.8176336007974686</v>
+        <v>0.8486445249283179</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>0.02387438503849213</v>
+        <v>0.1199369363883166</v>
       </c>
       <c r="F4">
-        <v>0.8037580737379096</v>
+        <v>0.8326550303831891</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>0.01204038501240273</v>
+        <v>0.1189608396779593</v>
       </c>
       <c r="F5">
-        <v>0.8344612003820006</v>
+        <v>0.8169929479063521</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>0.01250638278839637</v>
+        <v>0.121789344002473</v>
       </c>
       <c r="F6">
-        <v>0.824968046752053</v>
+        <v>0.833876277535381</v>
       </c>
       <c r="G6">
         <v>22</v>
@@ -3011,28 +4838,25 @@
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3050,302 +4874,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01061829084256142</v>
+        <v>0.1070512453705765</v>
       </c>
       <c r="F2">
-        <v>0.9247910638917778</v>
+        <v>0.9241389578829365</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.02109123280518074</v>
+        <v>0.1995137716654365</v>
       </c>
       <c r="F3">
-        <v>0.9130701314946343</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>0.02387438503849213</v>
+        <v>0.1199369363883166</v>
       </c>
       <c r="F4">
-        <v>0.9010799287190592</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>0.01204038501240273</v>
+        <v>0.1189608396779593</v>
       </c>
       <c r="F5">
-        <v>0.9116814496544432</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E6">
-        <v>0.01250638278839637</v>
+        <v>0.121789344002473</v>
       </c>
       <c r="F6">
-        <v>0.9023947564096908</v>
+        <v>0.945976645703552</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
